--- a/biology/Zoologie/Coriocella/Coriocella.xlsx
+++ b/biology/Zoologie/Coriocella/Coriocella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coriocella est un genre de mollusques gastéropodes de la famille des Velutinidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Leur coquille est couverte d'un épais manteau mou qui les fait ressembler à des éponges toxiques, dissuadant les prédateurs. Pour cette raison, on les appelle parfois « coquillages-éponges » (sponge snails en anglais). 
 </t>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (14 août 2014)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (14 août 2014) :
 Coriocella fella Er. Marcus &amp; Ev. Marcus, 1970
 Coriocella herberti Drivas &amp; Jay, 1990 -- océan Indien
 Coriocella hibyae Wellens, 1991 -- Maldives
